--- a/Process Results/Unified_Claims_Liability_Summary_0.xlsx
+++ b/Process Results/Unified_Claims_Liability_Summary_0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://actrisk-my.sharepoint.com/personal/sofia_moretti_actrisk_com/Documents/Documents/GitHub/DMI_IBNP_v2/Process Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://actrisk-my.sharepoint.com/personal/sofia_moretti_actrisk_com/Documents/Documents/GitHub/DMI_IBNP/Process Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{E09F6006-63E3-45A1-9C91-60264E8E535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF78E344-8B17-4EF3-8766-31B821F921BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F6006-63E3-45A1-9C91-60264E8E535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B94C235-4B85-4887-832D-FBC296CFB081}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>Company_Code</t>
   </si>
@@ -274,13 +274,13 @@
     <t>We continue using: Change in methodology for the last 3 months (form IELR to BF)</t>
   </si>
   <si>
-    <t>Higher IBNR due to big movements in incurral month: Mar 25</t>
-  </si>
-  <si>
-    <t>Change in methodology for the last 3 months (form IELR to BF)</t>
-  </si>
-  <si>
-    <t>We deleted some big movements</t>
+    <t>IBNR is lower because April payments fell out of the moving triangle, reducing the tail</t>
+  </si>
+  <si>
+    <t>We have deleted some big movements from the calculation of the completion factors</t>
+  </si>
+  <si>
+    <t>Lower IBNR due to high payments for incurral month April 2025</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,9 +530,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -552,55 +549,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2510333</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>112569</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9A1CC2-8C4A-40DD-9B5E-709EEEB048CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38100" y="3558540"/>
-          <a:ext cx="10374173" cy="1247949"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -618,7 +566,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>23491.995563699245</v>
+            <v>6819.6606046780089</v>
           </cell>
         </row>
       </sheetData>
@@ -646,7 +594,7 @@
       <sheetData sheetId="3">
         <row r="33">
           <cell r="H33">
-            <v>45647.363297129654</v>
+            <v>42793.317773003218</v>
           </cell>
         </row>
       </sheetData>
@@ -715,7 +663,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>52737.937858006539</v>
+            <v>55479.008808480314</v>
           </cell>
         </row>
       </sheetData>
@@ -786,7 +734,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>77313.679947327677</v>
+            <v>85842.862185714243</v>
           </cell>
         </row>
       </sheetData>
@@ -888,7 +836,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>66036.514801389232</v>
+            <v>68560.459281530522</v>
           </cell>
         </row>
       </sheetData>
@@ -1048,12 +996,12 @@
       <sheetName val="Summary"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>21148.367656214825</v>
+            <v>160017.84869688915</v>
           </cell>
         </row>
       </sheetData>
@@ -1155,7 +1103,7 @@
       <sheetData sheetId="2">
         <row r="33">
           <cell r="L33">
-            <v>37312.660864339989</v>
+            <v>33631.555074797754</v>
           </cell>
         </row>
       </sheetData>
@@ -1257,7 +1205,7 @@
       <sheetData sheetId="2">
         <row r="8">
           <cell r="A8">
-            <v>45108</v>
+            <v>45047</v>
           </cell>
           <cell r="H8">
             <v>0</v>
@@ -1265,7 +1213,7 @@
         </row>
         <row r="9">
           <cell r="A9">
-            <v>45139</v>
+            <v>45078</v>
           </cell>
           <cell r="H9">
             <v>0</v>
@@ -1273,7 +1221,7 @@
         </row>
         <row r="10">
           <cell r="A10">
-            <v>45170</v>
+            <v>45108</v>
           </cell>
           <cell r="H10">
             <v>0</v>
@@ -1281,7 +1229,7 @@
         </row>
         <row r="11">
           <cell r="A11">
-            <v>45200</v>
+            <v>45139</v>
           </cell>
           <cell r="H11">
             <v>0</v>
@@ -1289,162 +1237,162 @@
         </row>
         <row r="12">
           <cell r="A12">
-            <v>45231</v>
+            <v>45170</v>
           </cell>
           <cell r="H12">
-            <v>0</v>
+            <v>5.7246335095551331</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>45261</v>
+            <v>45200</v>
           </cell>
           <cell r="H13">
-            <v>1.7032735299435444</v>
+            <v>9.8752139325661119</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>45292</v>
+            <v>45231</v>
           </cell>
           <cell r="H14">
-            <v>98.110090685077012</v>
+            <v>87.641531743080122</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>45323</v>
+            <v>45261</v>
           </cell>
           <cell r="H15">
-            <v>781.10676364769461</v>
+            <v>186.94398931981414</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>45352</v>
+            <v>45292</v>
           </cell>
           <cell r="H16">
-            <v>1010.3536612073076</v>
+            <v>329.47577156301122</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>45383</v>
+            <v>45323</v>
           </cell>
           <cell r="H17">
-            <v>1110.600079182419</v>
+            <v>476.93558834749274</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>45413</v>
+            <v>45352</v>
           </cell>
           <cell r="H18">
-            <v>1447.2988825003267</v>
+            <v>880.01448790368158</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>45444</v>
+            <v>45383</v>
           </cell>
           <cell r="H19">
-            <v>1289.919267286954</v>
+            <v>1828.9400653282064</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>45474</v>
+            <v>45413</v>
           </cell>
           <cell r="H20">
-            <v>1694.9328809941944</v>
+            <v>3124.8082136861049</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>45505</v>
+            <v>45444</v>
           </cell>
           <cell r="H21">
-            <v>2847.643824507948</v>
+            <v>3244.6645041573502</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>45536</v>
+            <v>45474</v>
           </cell>
           <cell r="H22">
-            <v>2440.8600483703922</v>
+            <v>4000.2785609582206</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>45566</v>
+            <v>45505</v>
           </cell>
           <cell r="H23">
-            <v>4107.8313481451769</v>
+            <v>7044.7817021331866</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>45597</v>
+            <v>45536</v>
           </cell>
           <cell r="H24">
-            <v>3571.855623320429</v>
+            <v>6569.9906270338834</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>45627</v>
+            <v>45566</v>
           </cell>
           <cell r="H25">
-            <v>4246.6725183626259</v>
+            <v>10089.44521042108</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>45658</v>
+            <v>45597</v>
           </cell>
           <cell r="H26">
-            <v>5097.2929434053076</v>
+            <v>9346.6062436414068</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>45689</v>
+            <v>45627</v>
           </cell>
           <cell r="H27">
-            <v>9386.2545881313708</v>
+            <v>16293.447032806085</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>45717</v>
+            <v>45658</v>
           </cell>
           <cell r="H28">
-            <v>16167.193776677741</v>
+            <v>25448.703938125851</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>45748</v>
+            <v>45689</v>
           </cell>
           <cell r="H29">
-            <v>-20842.32</v>
+            <v>27864.690000000002</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>45778</v>
+            <v>45717</v>
           </cell>
           <cell r="H30">
-            <v>-1003.4200000000001</v>
+            <v>9786.2199999999866</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>45809</v>
+            <v>45748</v>
           </cell>
           <cell r="H31">
-            <v>0</v>
+            <v>-9825</v>
           </cell>
         </row>
       </sheetData>
@@ -1465,303 +1413,809 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="5">
-          <cell r="U5"/>
-          <cell r="V5"/>
-          <cell r="W5"/>
-          <cell r="AB5"/>
-          <cell r="AC5"/>
-          <cell r="AD5"/>
-          <cell r="AE5"/>
-          <cell r="AF5"/>
-          <cell r="AG5"/>
-          <cell r="AH5"/>
-          <cell r="AI5"/>
+          <cell r="U5">
+            <v>0</v>
+          </cell>
+          <cell r="V5">
+            <v>0</v>
+          </cell>
+          <cell r="W5">
+            <v>0.22745893325698865</v>
+          </cell>
+          <cell r="AB5">
+            <v>0</v>
+          </cell>
+          <cell r="AC5">
+            <v>5.8928035177394996E-5</v>
+          </cell>
+          <cell r="AD5">
+            <v>2.8584651901395895E-2</v>
+          </cell>
+          <cell r="AE5">
+            <v>0</v>
+          </cell>
+          <cell r="AF5">
+            <v>0</v>
+          </cell>
+          <cell r="AG5">
+            <v>0</v>
+          </cell>
+          <cell r="AH5">
+            <v>0.74389748680643808</v>
+          </cell>
+          <cell r="AI5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
-          <cell r="U6"/>
-          <cell r="V6"/>
-          <cell r="W6"/>
-          <cell r="AB6"/>
-          <cell r="AC6"/>
-          <cell r="AD6"/>
-          <cell r="AE6"/>
-          <cell r="AF6"/>
-          <cell r="AG6"/>
-          <cell r="AH6"/>
-          <cell r="AI6"/>
+          <cell r="U6">
+            <v>-3.0275486991909947E-5</v>
+          </cell>
+          <cell r="V6">
+            <v>0</v>
+          </cell>
+          <cell r="W6">
+            <v>0.1828545429976742</v>
+          </cell>
+          <cell r="AB6">
+            <v>0</v>
+          </cell>
+          <cell r="AC6">
+            <v>6.0964505056143169E-5</v>
+          </cell>
+          <cell r="AD6">
+            <v>2.9480831147089794E-2</v>
+          </cell>
+          <cell r="AE6">
+            <v>0</v>
+          </cell>
+          <cell r="AF6">
+            <v>0</v>
+          </cell>
+          <cell r="AG6">
+            <v>0</v>
+          </cell>
+          <cell r="AH6">
+            <v>0.78763393683717176</v>
+          </cell>
+          <cell r="AI6">
+            <v>0</v>
+          </cell>
         </row>
         <row r="7">
-          <cell r="U7"/>
-          <cell r="V7"/>
-          <cell r="W7"/>
-          <cell r="AB7"/>
-          <cell r="AC7"/>
-          <cell r="AD7"/>
-          <cell r="AE7"/>
-          <cell r="AF7"/>
-          <cell r="AG7"/>
-          <cell r="AH7"/>
-          <cell r="AI7"/>
+          <cell r="U7">
+            <v>0</v>
+          </cell>
+          <cell r="V7">
+            <v>0</v>
+          </cell>
+          <cell r="W7">
+            <v>0.13674019507634128</v>
+          </cell>
+          <cell r="AB7">
+            <v>0</v>
+          </cell>
+          <cell r="AC7">
+            <v>6.0146859681062323E-5</v>
+          </cell>
+          <cell r="AD7">
+            <v>3.0601033148382344E-2</v>
+          </cell>
+          <cell r="AE7">
+            <v>0</v>
+          </cell>
+          <cell r="AF7">
+            <v>0</v>
+          </cell>
+          <cell r="AG7">
+            <v>0</v>
+          </cell>
+          <cell r="AH7">
+            <v>0.83259862491559533</v>
+          </cell>
+          <cell r="AI7">
+            <v>0</v>
+          </cell>
         </row>
         <row r="8">
-          <cell r="U8"/>
-          <cell r="V8"/>
-          <cell r="W8"/>
-          <cell r="AB8"/>
-          <cell r="AC8"/>
-          <cell r="AD8"/>
-          <cell r="AE8"/>
-          <cell r="AF8"/>
-          <cell r="AG8"/>
-          <cell r="AH8"/>
-          <cell r="AI8"/>
+          <cell r="U8">
+            <v>-4.6666518731700187E-4</v>
+          </cell>
+          <cell r="V8">
+            <v>-3.8888765609750161E-4</v>
+          </cell>
+          <cell r="W8">
+            <v>0.10375008402047314</v>
+          </cell>
+          <cell r="AB8">
+            <v>0</v>
+          </cell>
+          <cell r="AC8">
+            <v>6.0873180402649462E-5</v>
+          </cell>
+          <cell r="AD8">
+            <v>2.9833606001700694E-2</v>
+          </cell>
+          <cell r="AE8">
+            <v>0</v>
+          </cell>
+          <cell r="AF8">
+            <v>0</v>
+          </cell>
+          <cell r="AG8">
+            <v>0</v>
+          </cell>
+          <cell r="AH8">
+            <v>0.86721098964083798</v>
+          </cell>
+          <cell r="AI8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
-          <cell r="U9"/>
-          <cell r="V9"/>
-          <cell r="W9"/>
-          <cell r="AB9"/>
-          <cell r="AC9"/>
-          <cell r="AD9"/>
-          <cell r="AE9"/>
-          <cell r="AF9"/>
-          <cell r="AG9"/>
-          <cell r="AH9"/>
-          <cell r="AI9"/>
+          <cell r="U9">
+            <v>0</v>
+          </cell>
+          <cell r="V9">
+            <v>0</v>
+          </cell>
+          <cell r="W9">
+            <v>6.8743792688376493E-2</v>
+          </cell>
+          <cell r="AB9">
+            <v>0</v>
+          </cell>
+          <cell r="AC9">
+            <v>0</v>
+          </cell>
+          <cell r="AD9">
+            <v>2.7157424920982495E-2</v>
+          </cell>
+          <cell r="AE9">
+            <v>0</v>
+          </cell>
+          <cell r="AF9">
+            <v>0</v>
+          </cell>
+          <cell r="AG9">
+            <v>0</v>
+          </cell>
+          <cell r="AH9">
+            <v>0.90409878239064101</v>
+          </cell>
+          <cell r="AI9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
-          <cell r="U10"/>
-          <cell r="V10"/>
-          <cell r="W10"/>
-          <cell r="AB10"/>
-          <cell r="AC10"/>
-          <cell r="AD10"/>
-          <cell r="AE10"/>
-          <cell r="AF10"/>
-          <cell r="AG10"/>
-          <cell r="AH10"/>
-          <cell r="AI10"/>
+          <cell r="U10">
+            <v>0</v>
+          </cell>
+          <cell r="V10">
+            <v>0</v>
+          </cell>
+          <cell r="W10">
+            <v>3.3731933711271818E-2</v>
+          </cell>
+          <cell r="AB10">
+            <v>0</v>
+          </cell>
+          <cell r="AC10">
+            <v>6.1471064121409959E-5</v>
+          </cell>
+          <cell r="AD10">
+            <v>2.3109960888650711E-2</v>
+          </cell>
+          <cell r="AE10">
+            <v>0</v>
+          </cell>
+          <cell r="AF10">
+            <v>0</v>
+          </cell>
+          <cell r="AG10">
+            <v>0</v>
+          </cell>
+          <cell r="AH10">
+            <v>0.94295986911539076</v>
+          </cell>
+          <cell r="AI10">
+            <v>1.3676522056529114E-4</v>
+          </cell>
         </row>
         <row r="11">
-          <cell r="U11"/>
-          <cell r="V11"/>
-          <cell r="W11"/>
-          <cell r="AB11"/>
-          <cell r="AC11"/>
-          <cell r="AD11"/>
-          <cell r="AE11"/>
-          <cell r="AF11"/>
-          <cell r="AG11"/>
-          <cell r="AH11"/>
-          <cell r="AI11"/>
+          <cell r="U11">
+            <v>0</v>
+          </cell>
+          <cell r="V11">
+            <v>0</v>
+          </cell>
+          <cell r="W11">
+            <v>-1.3609529531209555E-3</v>
+          </cell>
+          <cell r="AB11">
+            <v>0</v>
+          </cell>
+          <cell r="AC11">
+            <v>6.2229537646112665E-5</v>
+          </cell>
+          <cell r="AD11">
+            <v>1.9529018429213358E-2</v>
+          </cell>
+          <cell r="AE11">
+            <v>0</v>
+          </cell>
+          <cell r="AF11">
+            <v>0</v>
+          </cell>
+          <cell r="AG11">
+            <v>0</v>
+          </cell>
+          <cell r="AH11">
+            <v>0.96253925569226007</v>
+          </cell>
+          <cell r="AI11">
+            <v>1.923044929400131E-2</v>
+          </cell>
         </row>
         <row r="12">
-          <cell r="U12"/>
-          <cell r="V12"/>
-          <cell r="W12"/>
-          <cell r="AB12"/>
-          <cell r="AC12"/>
-          <cell r="AD12"/>
-          <cell r="AE12"/>
-          <cell r="AF12"/>
-          <cell r="AG12"/>
-          <cell r="AH12"/>
-          <cell r="AI12"/>
+          <cell r="U12">
+            <v>0</v>
+          </cell>
+          <cell r="V12">
+            <v>0</v>
+          </cell>
+          <cell r="W12">
+            <v>-7.7550351772633129E-4</v>
+          </cell>
+          <cell r="AB12">
+            <v>0</v>
+          </cell>
+          <cell r="AC12">
+            <v>5.9668268444387181E-5</v>
+          </cell>
+          <cell r="AD12">
+            <v>1.5898509310323182E-2</v>
+          </cell>
+          <cell r="AE12">
+            <v>0</v>
+          </cell>
+          <cell r="AF12">
+            <v>0</v>
+          </cell>
+          <cell r="AG12">
+            <v>0</v>
+          </cell>
+          <cell r="AH12">
+            <v>0.79472848664147222</v>
+          </cell>
+          <cell r="AI12">
+            <v>0.19008883929748643</v>
+          </cell>
         </row>
         <row r="13">
-          <cell r="U13"/>
-          <cell r="V13"/>
-          <cell r="W13"/>
-          <cell r="AB13"/>
-          <cell r="AC13"/>
-          <cell r="AD13"/>
-          <cell r="AE13"/>
-          <cell r="AF13"/>
-          <cell r="AG13"/>
-          <cell r="AH13"/>
-          <cell r="AI13"/>
+          <cell r="U13">
+            <v>0</v>
+          </cell>
+          <cell r="V13">
+            <v>0</v>
+          </cell>
+          <cell r="W13">
+            <v>-7.1608985331571309E-5</v>
+          </cell>
+          <cell r="AB13">
+            <v>0</v>
+          </cell>
+          <cell r="AC13">
+            <v>5.6045320726849162E-5</v>
+          </cell>
+          <cell r="AD13">
+            <v>1.2285572412995891E-2</v>
+          </cell>
+          <cell r="AE13">
+            <v>0</v>
+          </cell>
+          <cell r="AF13">
+            <v>0</v>
+          </cell>
+          <cell r="AG13">
+            <v>0</v>
+          </cell>
+          <cell r="AH13">
+            <v>0.6185510654658245</v>
+          </cell>
+          <cell r="AI13">
+            <v>0.36917892578578421</v>
+          </cell>
         </row>
         <row r="14">
-          <cell r="U14"/>
-          <cell r="V14"/>
-          <cell r="W14"/>
-          <cell r="AB14"/>
-          <cell r="AC14"/>
-          <cell r="AD14"/>
-          <cell r="AE14"/>
-          <cell r="AF14"/>
-          <cell r="AG14"/>
-          <cell r="AH14"/>
-          <cell r="AI14"/>
+          <cell r="U14">
+            <v>0</v>
+          </cell>
+          <cell r="V14">
+            <v>0</v>
+          </cell>
+          <cell r="W14">
+            <v>-1.6957195401925884E-4</v>
+          </cell>
+          <cell r="AB14">
+            <v>0</v>
+          </cell>
+          <cell r="AC14">
+            <v>5.4317063227791297E-5</v>
+          </cell>
+          <cell r="AD14">
+            <v>1.0159200350282244E-2</v>
+          </cell>
+          <cell r="AE14">
+            <v>0</v>
+          </cell>
+          <cell r="AF14">
+            <v>0</v>
+          </cell>
+          <cell r="AG14">
+            <v>0</v>
+          </cell>
+          <cell r="AH14">
+            <v>0.47108369436447789</v>
+          </cell>
+          <cell r="AI14">
+            <v>0.51887236017603144</v>
+          </cell>
         </row>
         <row r="15">
-          <cell r="U15"/>
-          <cell r="V15"/>
-          <cell r="W15"/>
-          <cell r="AB15"/>
-          <cell r="AC15"/>
-          <cell r="AD15"/>
-          <cell r="AE15"/>
-          <cell r="AF15"/>
-          <cell r="AG15"/>
-          <cell r="AH15"/>
-          <cell r="AI15"/>
+          <cell r="U15">
+            <v>0</v>
+          </cell>
+          <cell r="V15">
+            <v>0</v>
+          </cell>
+          <cell r="W15">
+            <v>0</v>
+          </cell>
+          <cell r="AB15">
+            <v>0</v>
+          </cell>
+          <cell r="AC15">
+            <v>5.1879187314968443E-5</v>
+          </cell>
+          <cell r="AD15">
+            <v>7.8257384577390138E-3</v>
+          </cell>
+          <cell r="AE15">
+            <v>0</v>
+          </cell>
+          <cell r="AF15">
+            <v>0</v>
+          </cell>
+          <cell r="AG15">
+            <v>0</v>
+          </cell>
+          <cell r="AH15">
+            <v>0.31427239728298756</v>
+          </cell>
+          <cell r="AI15">
+            <v>0.67784998507195837</v>
+          </cell>
         </row>
         <row r="16">
-          <cell r="U16"/>
-          <cell r="V16"/>
-          <cell r="W16"/>
-          <cell r="AB16"/>
-          <cell r="AC16"/>
-          <cell r="AD16"/>
-          <cell r="AE16"/>
-          <cell r="AF16"/>
-          <cell r="AG16"/>
-          <cell r="AH16"/>
-          <cell r="AI16"/>
+          <cell r="U16">
+            <v>0</v>
+          </cell>
+          <cell r="V16">
+            <v>0</v>
+          </cell>
+          <cell r="W16">
+            <v>-4.3847889195047763E-4</v>
+          </cell>
+          <cell r="AB16">
+            <v>0</v>
+          </cell>
+          <cell r="AC16">
+            <v>5.406528308341123E-5</v>
+          </cell>
+          <cell r="AD16">
+            <v>5.590939599079997E-3</v>
+          </cell>
+          <cell r="AE16">
+            <v>0</v>
+          </cell>
+          <cell r="AF16">
+            <v>0</v>
+          </cell>
+          <cell r="AG16">
+            <v>0</v>
+          </cell>
+          <cell r="AH16">
+            <v>0.24671313353744417</v>
+          </cell>
+          <cell r="AI16">
+            <v>0.74808034047234295</v>
+          </cell>
         </row>
         <row r="17">
-          <cell r="U17"/>
-          <cell r="V17"/>
-          <cell r="W17"/>
-          <cell r="AB17"/>
-          <cell r="AC17"/>
-          <cell r="AD17"/>
-          <cell r="AE17"/>
-          <cell r="AF17"/>
-          <cell r="AG17"/>
-          <cell r="AH17"/>
-          <cell r="AI17"/>
+          <cell r="U17">
+            <v>0</v>
+          </cell>
+          <cell r="V17">
+            <v>0</v>
+          </cell>
+          <cell r="W17">
+            <v>0</v>
+          </cell>
+          <cell r="AB17">
+            <v>0</v>
+          </cell>
+          <cell r="AC17">
+            <v>5.2748455149190415E-5</v>
+          </cell>
+          <cell r="AD17">
+            <v>3.2009804215382726E-3</v>
+          </cell>
+          <cell r="AE17">
+            <v>0</v>
+          </cell>
+          <cell r="AF17">
+            <v>0</v>
+          </cell>
+          <cell r="AG17">
+            <v>0</v>
+          </cell>
+          <cell r="AH17">
+            <v>0.1966215428093403</v>
+          </cell>
+          <cell r="AI17">
+            <v>0.8001247283139723</v>
+          </cell>
         </row>
         <row r="18">
-          <cell r="U18"/>
-          <cell r="V18"/>
-          <cell r="W18"/>
-          <cell r="AB18"/>
-          <cell r="AC18"/>
-          <cell r="AD18"/>
-          <cell r="AE18"/>
-          <cell r="AF18"/>
-          <cell r="AG18"/>
-          <cell r="AH18"/>
-          <cell r="AI18"/>
+          <cell r="U18">
+            <v>0</v>
+          </cell>
+          <cell r="V18">
+            <v>0</v>
+          </cell>
+          <cell r="W18">
+            <v>-9.3331188286351156E-5</v>
+          </cell>
+          <cell r="AB18">
+            <v>0</v>
+          </cell>
+          <cell r="AC18">
+            <v>5.410584258974003E-5</v>
+          </cell>
+          <cell r="AD18">
+            <v>1.574352456357426E-3</v>
+          </cell>
+          <cell r="AE18">
+            <v>0</v>
+          </cell>
+          <cell r="AF18">
+            <v>0</v>
+          </cell>
+          <cell r="AG18">
+            <v>0</v>
+          </cell>
+          <cell r="AH18">
+            <v>0.14878105893108692</v>
+          </cell>
+          <cell r="AI18">
+            <v>0.84968381395825232</v>
+          </cell>
         </row>
         <row r="19">
-          <cell r="U19"/>
-          <cell r="V19"/>
-          <cell r="W19"/>
-          <cell r="AB19"/>
-          <cell r="AC19"/>
-          <cell r="AD19"/>
-          <cell r="AE19"/>
-          <cell r="AF19"/>
-          <cell r="AG19"/>
-          <cell r="AH19"/>
-          <cell r="AI19"/>
+          <cell r="U19">
+            <v>0</v>
+          </cell>
+          <cell r="V19">
+            <v>0</v>
+          </cell>
+          <cell r="W19">
+            <v>0</v>
+          </cell>
+          <cell r="AB19">
+            <v>0</v>
+          </cell>
+          <cell r="AC19">
+            <v>6.1423317113352258E-5</v>
+          </cell>
+          <cell r="AD19">
+            <v>4.2437009965344221E-4</v>
+          </cell>
+          <cell r="AE19">
+            <v>0</v>
+          </cell>
+          <cell r="AF19">
+            <v>0</v>
+          </cell>
+          <cell r="AG19">
+            <v>0</v>
+          </cell>
+          <cell r="AH19">
+            <v>0.12609982394776884</v>
+          </cell>
+          <cell r="AI19">
+            <v>0.87341438263546434</v>
+          </cell>
         </row>
         <row r="20">
-          <cell r="U20"/>
-          <cell r="V20"/>
-          <cell r="W20"/>
-          <cell r="AB20"/>
-          <cell r="AC20"/>
-          <cell r="AD20"/>
-          <cell r="AE20"/>
-          <cell r="AF20"/>
-          <cell r="AG20"/>
-          <cell r="AH20"/>
-          <cell r="AI20"/>
+          <cell r="U20">
+            <v>0</v>
+          </cell>
+          <cell r="V20">
+            <v>0</v>
+          </cell>
+          <cell r="W20">
+            <v>0</v>
+          </cell>
+          <cell r="AB20">
+            <v>0</v>
+          </cell>
+          <cell r="AC20">
+            <v>6.6843867997460431E-5</v>
+          </cell>
+          <cell r="AD20">
+            <v>0</v>
+          </cell>
+          <cell r="AE20">
+            <v>0</v>
+          </cell>
+          <cell r="AF20">
+            <v>0</v>
+          </cell>
+          <cell r="AG20">
+            <v>0</v>
+          </cell>
+          <cell r="AH20">
+            <v>0.10274334076655466</v>
+          </cell>
+          <cell r="AI20">
+            <v>0.89718981536544784</v>
+          </cell>
         </row>
         <row r="21">
-          <cell r="U21"/>
-          <cell r="V21"/>
-          <cell r="W21"/>
-          <cell r="AB21"/>
-          <cell r="AC21"/>
-          <cell r="AD21"/>
-          <cell r="AE21"/>
-          <cell r="AF21"/>
-          <cell r="AG21"/>
-          <cell r="AH21"/>
-          <cell r="AI21"/>
+          <cell r="U21">
+            <v>0</v>
+          </cell>
+          <cell r="V21">
+            <v>0</v>
+          </cell>
+          <cell r="W21">
+            <v>0</v>
+          </cell>
+          <cell r="AB21">
+            <v>0</v>
+          </cell>
+          <cell r="AC21">
+            <v>7.3160893563363531E-5</v>
+          </cell>
+          <cell r="AD21">
+            <v>0</v>
+          </cell>
+          <cell r="AE21">
+            <v>0</v>
+          </cell>
+          <cell r="AF21">
+            <v>0</v>
+          </cell>
+          <cell r="AG21">
+            <v>0</v>
+          </cell>
+          <cell r="AH21">
+            <v>7.1468824206331161E-2</v>
+          </cell>
+          <cell r="AI21">
+            <v>0.92845801490010549</v>
+          </cell>
         </row>
         <row r="22">
-          <cell r="U22"/>
-          <cell r="V22"/>
-          <cell r="W22"/>
-          <cell r="AB22"/>
-          <cell r="AC22"/>
-          <cell r="AD22"/>
-          <cell r="AE22"/>
-          <cell r="AF22"/>
-          <cell r="AG22"/>
-          <cell r="AH22"/>
-          <cell r="AI22"/>
+          <cell r="U22">
+            <v>0</v>
+          </cell>
+          <cell r="V22">
+            <v>0</v>
+          </cell>
+          <cell r="W22">
+            <v>0</v>
+          </cell>
+          <cell r="AB22">
+            <v>0</v>
+          </cell>
+          <cell r="AC22">
+            <v>8.0234016155321185E-5</v>
+          </cell>
+          <cell r="AD22">
+            <v>0</v>
+          </cell>
+          <cell r="AE22">
+            <v>0</v>
+          </cell>
+          <cell r="AF22">
+            <v>0</v>
+          </cell>
+          <cell r="AG22">
+            <v>0</v>
+          </cell>
+          <cell r="AH22">
+            <v>3.5718040020694279E-2</v>
+          </cell>
+          <cell r="AI22">
+            <v>0.96420172596315046</v>
+          </cell>
         </row>
         <row r="23">
-          <cell r="U23"/>
-          <cell r="V23"/>
-          <cell r="W23"/>
-          <cell r="AB23"/>
-          <cell r="AC23"/>
-          <cell r="AD23"/>
-          <cell r="AE23"/>
-          <cell r="AF23"/>
-          <cell r="AG23"/>
-          <cell r="AH23"/>
-          <cell r="AI23"/>
+          <cell r="U23">
+            <v>0</v>
+          </cell>
+          <cell r="V23">
+            <v>0</v>
+          </cell>
+          <cell r="W23">
+            <v>0</v>
+          </cell>
+          <cell r="AB23">
+            <v>5.4619733207480143E-3</v>
+          </cell>
+          <cell r="AC23">
+            <v>8.8663664349146118E-5</v>
+          </cell>
+          <cell r="AD23">
+            <v>0</v>
+          </cell>
+          <cell r="AE23">
+            <v>0</v>
+          </cell>
+          <cell r="AF23">
+            <v>0</v>
+          </cell>
+          <cell r="AG23">
+            <v>0</v>
+          </cell>
+          <cell r="AH23">
+            <v>-8.6460285722257777E-4</v>
+          </cell>
+          <cell r="AI23">
+            <v>0.99531396587212539</v>
+          </cell>
         </row>
         <row r="24">
-          <cell r="U24"/>
-          <cell r="V24"/>
-          <cell r="W24"/>
-          <cell r="AB24"/>
-          <cell r="AC24"/>
-          <cell r="AD24"/>
-          <cell r="AE24"/>
-          <cell r="AF24"/>
-          <cell r="AG24"/>
-          <cell r="AH24"/>
-          <cell r="AI24"/>
+          <cell r="U24">
+            <v>0</v>
+          </cell>
+          <cell r="V24">
+            <v>0</v>
+          </cell>
+          <cell r="W24">
+            <v>0</v>
+          </cell>
+          <cell r="AB24">
+            <v>6.8708907182364609E-2</v>
+          </cell>
+          <cell r="AC24">
+            <v>9.6129038721270779E-5</v>
+          </cell>
+          <cell r="AD24">
+            <v>0</v>
+          </cell>
+          <cell r="AE24">
+            <v>0</v>
+          </cell>
+          <cell r="AF24">
+            <v>0</v>
+          </cell>
+          <cell r="AG24">
+            <v>0</v>
+          </cell>
+          <cell r="AH24">
+            <v>-1.661362708259907E-4</v>
+          </cell>
+          <cell r="AI24">
+            <v>0.93136110004974015</v>
+          </cell>
         </row>
         <row r="25">
-          <cell r="U25"/>
-          <cell r="V25"/>
-          <cell r="W25"/>
-          <cell r="AB25"/>
-          <cell r="AC25"/>
-          <cell r="AD25"/>
-          <cell r="AE25"/>
-          <cell r="AF25"/>
-          <cell r="AG25"/>
-          <cell r="AH25"/>
-          <cell r="AI25"/>
+          <cell r="U25">
+            <v>0</v>
+          </cell>
+          <cell r="V25">
+            <v>0</v>
+          </cell>
+          <cell r="W25">
+            <v>0</v>
+          </cell>
+          <cell r="AB25">
+            <v>0.16769798082274415</v>
+          </cell>
+          <cell r="AC25">
+            <v>1.0603754919303136E-4</v>
+          </cell>
+          <cell r="AD25">
+            <v>0</v>
+          </cell>
+          <cell r="AE25">
+            <v>0</v>
+          </cell>
+          <cell r="AF25">
+            <v>0</v>
+          </cell>
+          <cell r="AG25">
+            <v>0</v>
+          </cell>
+          <cell r="AH25">
+            <v>-6.3190968678404223E-4</v>
+          </cell>
+          <cell r="AI25">
+            <v>0.8328278913148468</v>
+          </cell>
         </row>
         <row r="26">
-          <cell r="U26"/>
-          <cell r="V26"/>
-          <cell r="W26"/>
-          <cell r="AB26"/>
-          <cell r="AC26"/>
-          <cell r="AD26"/>
-          <cell r="AE26"/>
-          <cell r="AF26"/>
-          <cell r="AG26"/>
-          <cell r="AH26"/>
-          <cell r="AI26"/>
+          <cell r="U26">
+            <v>0</v>
+          </cell>
+          <cell r="V26">
+            <v>0</v>
+          </cell>
+          <cell r="W26">
+            <v>0</v>
+          </cell>
+          <cell r="AB26">
+            <v>0.3382459735055553</v>
+          </cell>
+          <cell r="AC26">
+            <v>1.1616977205699821E-4</v>
+          </cell>
+          <cell r="AD26">
+            <v>0</v>
+          </cell>
+          <cell r="AE26">
+            <v>0</v>
+          </cell>
+          <cell r="AF26">
+            <v>0</v>
+          </cell>
+          <cell r="AG26">
+            <v>0</v>
+          </cell>
+          <cell r="AH26">
+            <v>0</v>
+          </cell>
+          <cell r="AI26">
+            <v>0.66163785672238762</v>
+          </cell>
         </row>
         <row r="27">
-          <cell r="U27"/>
-          <cell r="V27"/>
-          <cell r="W27"/>
-          <cell r="AB27"/>
-          <cell r="AC27"/>
-          <cell r="AD27"/>
-          <cell r="AE27"/>
-          <cell r="AF27"/>
-          <cell r="AG27"/>
-          <cell r="AH27"/>
-          <cell r="AI27"/>
+          <cell r="U27">
+            <v>0</v>
+          </cell>
+          <cell r="V27">
+            <v>0</v>
+          </cell>
+          <cell r="W27">
+            <v>0</v>
+          </cell>
+          <cell r="AB27">
+            <v>0.51371390561926755</v>
+          </cell>
+          <cell r="AC27">
+            <v>1.3678970120040062E-4</v>
+          </cell>
+          <cell r="AD27">
+            <v>0</v>
+          </cell>
+          <cell r="AE27">
+            <v>0</v>
+          </cell>
+          <cell r="AF27">
+            <v>0</v>
+          </cell>
+          <cell r="AG27">
+            <v>0</v>
+          </cell>
+          <cell r="AH27">
+            <v>-1.3826866076528061E-3</v>
+          </cell>
+          <cell r="AI27">
+            <v>0.48753199128718488</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -1785,7 +2239,7 @@
         </row>
         <row r="3">
           <cell r="E3">
-            <v>2033.5254338214177</v>
+            <v>2702.4369041885366</v>
           </cell>
         </row>
         <row r="4">
@@ -1795,77 +2249,77 @@
         </row>
         <row r="5">
           <cell r="E5">
-            <v>281016.93768909952</v>
+            <v>313245.33722539881</v>
           </cell>
         </row>
         <row r="6">
           <cell r="E6">
-            <v>46002.816605978456</v>
+            <v>48773.56793067939</v>
           </cell>
         </row>
         <row r="7">
           <cell r="E7">
-            <v>70406.653451535385</v>
+            <v>59639.934469116335</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>91458.206718460147</v>
+            <v>92281.076849642806</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>96419.205398414633</v>
+            <v>98752.846041394805</v>
           </cell>
           <cell r="E9">
-            <v>103650.64580329573</v>
+            <v>106159.30949449941</v>
           </cell>
         </row>
         <row r="10">
           <cell r="E10">
-            <v>66870.901055892682</v>
+            <v>73702.493727645313</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>198763.94594252511</v>
+            <v>235149.26040499116</v>
           </cell>
           <cell r="E11">
-            <v>208702.14323965137</v>
+            <v>246906.72342524072</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>7794.7526975402152</v>
+            <v>10505.619791504278</v>
           </cell>
           <cell r="E12">
-            <v>8184.4903324172265</v>
+            <v>11030.900781079492</v>
           </cell>
         </row>
         <row r="13">
           <cell r="E13">
-            <v>18509.175596435849</v>
+            <v>17276.979617531899</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>102492.40337272087</v>
+            <v>135428.50541240559</v>
           </cell>
           <cell r="E14">
-            <v>110179.33362567495</v>
+            <v>145585.64331833602</v>
           </cell>
         </row>
         <row r="15">
           <cell r="E15">
-            <v>36153.921705407585</v>
+            <v>40676.348266277222</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>49779.154849274884</v>
+            <v>290107.76076621248</v>
           </cell>
           <cell r="E16">
-            <v>53512.5914629705</v>
+            <v>311865.84282367839</v>
           </cell>
         </row>
       </sheetData>
@@ -1885,14 +2339,16 @@
       <sheetName val="Completion Factors"/>
       <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
+      <sheetName val="Summary - BF"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
         <row r="33">
           <cell r="H33">
-            <v>2723.1403435339134</v>
+            <v>1891.6515663455048</v>
           </cell>
         </row>
       </sheetData>
@@ -1954,16 +2410,14 @@
       <sheetName val="Completion Factors"/>
       <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
-      <sheetName val="Summary - BF"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="2">
         <row r="33">
           <cell r="H33">
-            <v>66316.741576809363</v>
+            <v>37695.16915278833</v>
           </cell>
         </row>
       </sheetData>
@@ -2023,16 +2477,16 @@
       <sheetName val="Completion Factors"/>
       <sheetName val="Plot Patterns"/>
       <sheetName val="Summary"/>
-      <sheetName val="Summary - Vol All BF"/>
+      <sheetName val="Summary - vol all BF"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="33">
           <cell r="H33">
-            <v>242843.95758610716</v>
+            <v>261411.10482706933</v>
           </cell>
         </row>
       </sheetData>
@@ -2417,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C38D66-6A3A-466E-8973-92ABD33CCFF7}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2490,7 +2944,7 @@
       </c>
       <c r="B2" s="6">
         <f>+[1]Summary!$H$33</f>
-        <v>23491.995563699245</v>
+        <v>6819.6606046780089</v>
       </c>
       <c r="C2" s="3">
         <f>+[2]Summary!$H$35</f>
@@ -2498,11 +2952,11 @@
       </c>
       <c r="D2" s="5">
         <f>+B2*C2</f>
-        <v>1761.8996672774433</v>
+        <v>511.47454535085063</v>
       </c>
       <c r="E2" s="5">
         <f>+B2+D2</f>
-        <v>25253.89523097669</v>
+        <v>7331.1351500288592</v>
       </c>
       <c r="G2" s="6">
         <f>[3]Summary!E2</f>
@@ -2510,11 +2964,11 @@
       </c>
       <c r="H2" s="6">
         <f>+E2-G2</f>
-        <v>17922.760080947832</v>
+        <v>0</v>
       </c>
       <c r="I2" s="7">
         <f>+H2/G2</f>
-        <v>2.4447455563381992</v>
+        <v>0</v>
       </c>
       <c r="J2" s="26">
         <f>+[2]Summary!$H$36</f>
@@ -2522,15 +2976,13 @@
       </c>
       <c r="K2" s="26">
         <f>+E2-J2</f>
-        <v>15059.713537151496</v>
+        <v>-2863.0465437963348</v>
       </c>
       <c r="L2" s="27">
         <f>+K2/J2</f>
-        <v>1.4772851798662217</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>-0.28085104128863386</v>
+      </c>
+      <c r="M2" s="8"/>
       <c r="O2" t="s">
         <v>28</v>
       </c>
@@ -2543,8 +2995,8 @@
         <v>6</v>
       </c>
       <c r="B3" s="6">
-        <f>+[4]Summary!$H$33</f>
-        <v>2723.1403435339134</v>
+        <f>+'[4]Summary - BF'!$H$33</f>
+        <v>1891.6515663455048</v>
       </c>
       <c r="C3" s="38">
         <f>+[5]Summary!$H$35</f>
@@ -2552,23 +3004,23 @@
       </c>
       <c r="D3" s="28">
         <f t="shared" ref="D3:D16" si="0">+B3*C3</f>
-        <v>204.23552576504349</v>
+        <v>141.87386747591285</v>
       </c>
       <c r="E3" s="28">
         <f t="shared" ref="E3:E16" si="1">+B3+D3</f>
-        <v>2927.3758692989568</v>
+        <v>2033.5254338214177</v>
       </c>
       <c r="G3" s="6">
         <f>[3]Summary!E3</f>
-        <v>2033.5254338214177</v>
+        <v>2702.4369041885366</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H16" si="2">+E3-G3</f>
-        <v>893.85043547753912</v>
+        <v>-668.91147036711891</v>
       </c>
       <c r="I3" s="29">
         <f t="shared" ref="I3:I16" si="3">+H3/G3</f>
-        <v>0.43955704738730905</v>
+        <v>-0.24752158665771834</v>
       </c>
       <c r="J3" s="6">
         <f>+[5]Summary!$H$36</f>
@@ -2576,11 +3028,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ref="K3:K16" si="4">+E3-J3</f>
-        <v>74.476855156759484</v>
+        <v>-819.37358032077964</v>
       </c>
       <c r="L3" s="29">
         <f t="shared" ref="L3:L16" si="5">+K3/J3</f>
-        <v>2.6105675240367034E-2</v>
+        <v>-0.28720735513561346</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>52</v>
@@ -2597,8 +3049,8 @@
         <v>15</v>
       </c>
       <c r="B4" s="6">
-        <f>+'[6]Summary - BF'!$H$33</f>
-        <v>66316.741576809363</v>
+        <f>+[6]Summary!$H$33</f>
+        <v>37695.16915278833</v>
       </c>
       <c r="C4" s="38">
         <f>+[7]Summary!$H$35</f>
@@ -2606,11 +3058,11 @@
       </c>
       <c r="D4" s="28">
         <f t="shared" si="0"/>
-        <v>4973.7556182607022</v>
+        <v>2827.1376864591248</v>
       </c>
       <c r="E4" s="28">
         <f t="shared" si="1"/>
-        <v>71290.497195070071</v>
+        <v>40522.306839247452</v>
       </c>
       <c r="G4" s="6">
         <f>[3]Summary!E4</f>
@@ -2618,11 +3070,11 @@
       </c>
       <c r="H4" s="6">
         <f t="shared" si="2"/>
-        <v>30768.190355822619</v>
+        <v>0</v>
       </c>
       <c r="I4" s="29">
         <f t="shared" si="3"/>
-        <v>0.75929019731972447</v>
+        <v>0</v>
       </c>
       <c r="J4" s="6">
         <f>+[7]Summary!$H$36</f>
@@ -2630,14 +3082,14 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" si="4"/>
-        <v>24762.900236198868</v>
+        <v>-6005.2901196237508</v>
       </c>
       <c r="L4" s="29">
         <f t="shared" si="5"/>
-        <v>0.53221962565761605</v>
+        <v>-0.12906942357096629</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -2651,8 +3103,8 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <f>+'[8]Summary - Vol All BF'!$H$33</f>
-        <v>242843.95758610716</v>
+        <f>+'[8]Summary - vol all BF'!$H$33</f>
+        <v>261411.10482706933</v>
       </c>
       <c r="C5" s="38">
         <f>+[9]Summary!$H$35</f>
@@ -2660,23 +3112,23 @@
       </c>
       <c r="D5" s="28">
         <f t="shared" si="0"/>
-        <v>18213.296818958035</v>
+        <v>19605.832862030198</v>
       </c>
       <c r="E5" s="28">
         <f>+B5+D5</f>
-        <v>261057.25440506521</v>
+        <v>281016.93768909952</v>
       </c>
       <c r="G5" s="6">
         <f>[3]Summary!E5</f>
-        <v>281016.93768909952</v>
+        <v>313245.33722539881</v>
       </c>
       <c r="H5" s="6">
-        <f>+E5-G5</f>
-        <v>-19959.683284034312</v>
+        <f t="shared" si="2"/>
+        <v>-32228.399536299286</v>
       </c>
       <c r="I5" s="29">
         <f>+H5/G5</f>
-        <v>-7.102662013247231E-2</v>
+        <v>-0.1028854884856882</v>
       </c>
       <c r="J5" s="6">
         <f>+[9]Summary!$H$36</f>
@@ -2684,11 +3136,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" si="4"/>
-        <v>172463.86049391795</v>
+        <v>192423.54377795226</v>
       </c>
       <c r="L5" s="29">
         <f t="shared" si="5"/>
-        <v>1.9466898476300236</v>
+        <v>2.1719852382101883</v>
       </c>
       <c r="M5" s="39" t="s">
         <v>51</v>
@@ -2706,7 +3158,7 @@
       </c>
       <c r="B6" s="6">
         <f>+'[10]Summary - BF'!$H$33</f>
-        <v>45647.363297129654</v>
+        <v>42793.317773003218</v>
       </c>
       <c r="C6" s="38">
         <f>+[11]Summary!$H$35</f>
@@ -2714,23 +3166,23 @@
       </c>
       <c r="D6" s="28">
         <f t="shared" si="0"/>
-        <v>3423.5522472847238</v>
+        <v>3209.4988329752414</v>
       </c>
       <c r="E6" s="28">
         <f t="shared" si="1"/>
-        <v>49070.915544414376</v>
+        <v>46002.816605978456</v>
       </c>
       <c r="G6" s="6">
         <f>[3]Summary!E6</f>
-        <v>46002.816605978456</v>
+        <v>48773.56793067939</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="2"/>
-        <v>3068.09893843592</v>
+        <v>-2770.7513247009338</v>
       </c>
       <c r="I6" s="29">
         <f t="shared" si="3"/>
-        <v>6.6693719315377625E-2</v>
+        <v>-5.6808460858121572E-2</v>
       </c>
       <c r="J6" s="6">
         <f>+[11]Summary!$H$36</f>
@@ -2738,11 +3190,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" si="4"/>
-        <v>16361.66877242929</v>
+        <v>13293.56983399337</v>
       </c>
       <c r="L6" s="29">
         <f t="shared" si="5"/>
-        <v>0.50021539433438689</v>
+        <v>0.40641626285870597</v>
       </c>
       <c r="M6" s="25" t="s">
         <v>52</v>
@@ -2760,7 +3212,7 @@
       </c>
       <c r="B7" s="6">
         <f>+[12]Summary!$H$33</f>
-        <v>52737.937858006539</v>
+        <v>55479.008808480314</v>
       </c>
       <c r="C7" s="38">
         <f>+[13]Summary!$H$35</f>
@@ -2768,23 +3220,23 @@
       </c>
       <c r="D7" s="28">
         <f t="shared" si="0"/>
-        <v>3955.3453393504901</v>
+        <v>4160.9256606360232</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" si="1"/>
-        <v>56693.283197357028</v>
+        <v>59639.934469116335</v>
       </c>
       <c r="G7" s="6">
         <f>[3]Summary!E7</f>
-        <v>70406.653451535385</v>
+        <v>59639.934469116335</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>-13713.370254178357</v>
+        <v>0</v>
       </c>
       <c r="I7" s="29">
         <f t="shared" si="3"/>
-        <v>-0.1947737831853916</v>
+        <v>0</v>
       </c>
       <c r="J7" s="6">
         <f>+[13]Summary!$H$36</f>
@@ -2792,11 +3244,11 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" si="4"/>
-        <v>12751.923197357028</v>
+        <v>15698.574469116335</v>
       </c>
       <c r="L7" s="29">
         <f t="shared" si="5"/>
-        <v>0.290203198020203</v>
+        <v>0.357261916088085</v>
       </c>
       <c r="M7" s="24"/>
       <c r="O7" t="s">
@@ -2812,7 +3264,7 @@
       </c>
       <c r="B8" s="6">
         <f>+[14]Summary!$H$33</f>
-        <v>77313.679947327677</v>
+        <v>85842.862185714243</v>
       </c>
       <c r="C8" s="38">
         <f>+[15]Summary!$H$35</f>
@@ -2820,23 +3272,23 @@
       </c>
       <c r="D8" s="28">
         <f t="shared" si="0"/>
-        <v>5798.525996049576</v>
+        <v>6438.2146639285684</v>
       </c>
       <c r="E8" s="28">
         <f t="shared" si="1"/>
-        <v>83112.205943377252</v>
+        <v>92281.076849642806</v>
       </c>
       <c r="G8" s="6">
         <f>[3]Summary!E8</f>
-        <v>91458.206718460147</v>
+        <v>92281.076849642806</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>-8346.0007750828954</v>
+        <v>0</v>
       </c>
       <c r="I8" s="29">
         <f t="shared" si="3"/>
-        <v>-9.1254804511690893E-2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="6">
         <f>+[15]Summary!$H$36</f>
@@ -2844,11 +3296,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" si="4"/>
-        <v>-75540.951193102344</v>
+        <v>-66372.08028683679</v>
       </c>
       <c r="L8" s="29">
         <f t="shared" si="5"/>
-        <v>-0.47613897231253388</v>
+        <v>-0.41834705016138413</v>
       </c>
       <c r="M8" s="25"/>
       <c r="O8" t="s">
@@ -2864,7 +3316,7 @@
       </c>
       <c r="B9" s="31">
         <f>[3]Summary!B9</f>
-        <v>96419.205398414633</v>
+        <v>98752.846041394805</v>
       </c>
       <c r="C9" s="32">
         <f>+[16]Summary!$H$35</f>
@@ -2872,15 +3324,15 @@
       </c>
       <c r="D9" s="33">
         <f t="shared" si="0"/>
-        <v>7231.4404048810975</v>
+        <v>7406.4634531046104</v>
       </c>
       <c r="E9" s="33">
         <f t="shared" si="1"/>
-        <v>103650.64580329573</v>
+        <v>106159.30949449941</v>
       </c>
       <c r="G9" s="31">
         <f>[3]Summary!E9</f>
-        <v>103650.64580329573</v>
+        <v>106159.30949449941</v>
       </c>
       <c r="H9" s="31">
         <f t="shared" si="2"/>
@@ -2896,11 +3348,11 @@
       </c>
       <c r="K9" s="31">
         <f t="shared" si="4"/>
-        <v>-63865.193171442064</v>
+        <v>-61356.529480238387</v>
       </c>
       <c r="L9" s="34">
         <f t="shared" si="5"/>
-        <v>-0.38124868407860374</v>
+        <v>-0.3662730035306766</v>
       </c>
       <c r="M9" s="35"/>
       <c r="O9" s="30" t="s">
@@ -2916,7 +3368,7 @@
       </c>
       <c r="B10" s="6">
         <f>+[17]Summary!$H$33</f>
-        <v>66036.514801389232</v>
+        <v>68560.459281530522</v>
       </c>
       <c r="C10" s="38">
         <f>+[18]Summary!$H$35</f>
@@ -2924,23 +3376,23 @@
       </c>
       <c r="D10" s="28">
         <f t="shared" si="0"/>
-        <v>4952.738610104192</v>
+        <v>5142.0344461147888</v>
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>70989.253411493424</v>
+        <v>73702.493727645313</v>
       </c>
       <c r="G10" s="6">
         <f>[3]Summary!E10</f>
-        <v>66870.901055892682</v>
+        <v>73702.493727645313</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>4118.3523556007422</v>
+        <v>0</v>
       </c>
       <c r="I10" s="29">
         <f t="shared" si="3"/>
-        <v>6.1586613767302179E-2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="6">
         <f>+[18]Summary!$H$36</f>
@@ -2948,11 +3400,11 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" si="4"/>
-        <v>9586.2506452411544</v>
+        <v>12299.490961393043</v>
       </c>
       <c r="L10" s="29">
         <f t="shared" si="5"/>
-        <v>0.15612022561394762</v>
+        <v>0.2003076463249607</v>
       </c>
       <c r="M10" s="24"/>
       <c r="O10" t="s">
@@ -2968,22 +3420,22 @@
       </c>
       <c r="B11" s="31">
         <f>[3]Summary!B11</f>
-        <v>198763.94594252511</v>
+        <v>235149.26040499116</v>
       </c>
       <c r="C11" s="32">
         <v>0.05</v>
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
-        <v>9938.1972971262567</v>
+        <v>11757.463020249559</v>
       </c>
       <c r="E11" s="33">
         <f t="shared" si="1"/>
-        <v>208702.14323965137</v>
+        <v>246906.72342524072</v>
       </c>
       <c r="G11" s="31">
         <f>[3]Summary!E11</f>
-        <v>208702.14323965137</v>
+        <v>246906.72342524072</v>
       </c>
       <c r="H11" s="31">
         <f t="shared" si="2"/>
@@ -2999,11 +3451,11 @@
       </c>
       <c r="K11" s="31">
         <f t="shared" ref="K11" si="6">+E11-J11</f>
-        <v>87465.993239651347</v>
+        <v>125670.5734252407</v>
       </c>
       <c r="L11" s="34">
         <f t="shared" ref="L11" si="7">+K11/J11</f>
-        <v>0.72145142550016084</v>
+        <v>1.0365767423762688</v>
       </c>
       <c r="M11" s="35"/>
       <c r="O11" s="30" t="s">
@@ -3019,22 +3471,22 @@
       </c>
       <c r="B12" s="31">
         <f>[3]Summary!B12</f>
-        <v>7794.7526975402152</v>
+        <v>10505.619791504278</v>
       </c>
       <c r="C12" s="32">
         <v>0.05</v>
       </c>
       <c r="D12" s="33">
         <f t="shared" si="0"/>
-        <v>389.73763487701081</v>
+        <v>525.28098957521388</v>
       </c>
       <c r="E12" s="33">
         <f t="shared" si="1"/>
-        <v>8184.4903324172265</v>
+        <v>11030.900781079492</v>
       </c>
       <c r="G12" s="31">
         <f>[3]Summary!E12</f>
-        <v>8184.4903324172265</v>
+        <v>11030.900781079492</v>
       </c>
       <c r="H12" s="31">
         <f t="shared" si="2"/>
@@ -3050,11 +3502,11 @@
       </c>
       <c r="K12" s="31">
         <f t="shared" ref="K12" si="8">+E12-J12</f>
-        <v>-13124.209667582774</v>
+        <v>-10277.799218920509</v>
       </c>
       <c r="L12" s="34">
         <f t="shared" ref="L12" si="9">+K12/J12</f>
-        <v>-0.61590851002561275</v>
+        <v>-0.48232877739704949</v>
       </c>
       <c r="M12" s="35"/>
       <c r="O12" s="30" t="s">
@@ -3070,7 +3522,7 @@
       </c>
       <c r="B13" s="6">
         <f>+[21]Summary!$H$33</f>
-        <v>21148.367656214825</v>
+        <v>160017.84869688915</v>
       </c>
       <c r="C13" s="38">
         <f>+[22]Summary!$H$35</f>
@@ -3078,23 +3530,23 @@
       </c>
       <c r="D13" s="28">
         <f t="shared" si="0"/>
-        <v>1586.1275742161117</v>
+        <v>12001.338652266686</v>
       </c>
       <c r="E13" s="28">
         <f t="shared" si="1"/>
-        <v>22734.495230430937</v>
+        <v>172019.18734915584</v>
       </c>
       <c r="G13" s="6">
         <f>[3]Summary!E13</f>
-        <v>18509.175596435849</v>
+        <v>17276.979617531899</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="2"/>
-        <v>4225.3196339950882</v>
+        <v>154742.20773162393</v>
       </c>
       <c r="I13" s="29">
         <f t="shared" si="3"/>
-        <v>0.22828243278478169</v>
+        <v>8.9565543953411009</v>
       </c>
       <c r="J13" s="6">
         <f>+[22]Summary!$H$36</f>
@@ -3102,14 +3554,14 @@
       </c>
       <c r="K13" s="6">
         <f t="shared" si="4"/>
-        <v>-190.61748392587106</v>
+        <v>149094.07463479904</v>
       </c>
       <c r="L13" s="29">
         <f t="shared" si="5"/>
-        <v>-8.3147893884289274E-3</v>
+        <v>6.5035263508837255</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O13" t="s">
         <v>29</v>
@@ -3124,7 +3576,7 @@
       </c>
       <c r="B14" s="31">
         <f>[3]Summary!B14</f>
-        <v>102492.40337272087</v>
+        <v>135428.50541240559</v>
       </c>
       <c r="C14" s="32">
         <f>+[23]Summary!$H$35</f>
@@ -3132,15 +3584,15 @@
       </c>
       <c r="D14" s="33">
         <f t="shared" si="0"/>
-        <v>7686.9302529540655</v>
+        <v>10157.137905930418</v>
       </c>
       <c r="E14" s="33">
         <f t="shared" si="1"/>
-        <v>110179.33362567495</v>
+        <v>145585.64331833602</v>
       </c>
       <c r="G14" s="31">
         <f>[3]Summary!E14</f>
-        <v>110179.33362567495</v>
+        <v>145585.64331833602</v>
       </c>
       <c r="H14" s="31">
         <f t="shared" si="2"/>
@@ -3156,11 +3608,11 @@
       </c>
       <c r="K14" s="31">
         <f t="shared" si="4"/>
-        <v>49557.76511697127</v>
+        <v>84964.074809632351</v>
       </c>
       <c r="L14" s="34">
         <f t="shared" si="5"/>
-        <v>0.81749394375792284</v>
+        <v>1.4015486055500812</v>
       </c>
       <c r="M14" s="35"/>
       <c r="O14" s="30" t="s">
@@ -3176,7 +3628,7 @@
       </c>
       <c r="B15" s="6">
         <f>+[24]Summary!$L$33</f>
-        <v>37312.660864339989</v>
+        <v>33631.555074797754</v>
       </c>
       <c r="C15" s="38">
         <f>+[25]Summary!$L$35</f>
@@ -3184,23 +3636,23 @@
       </c>
       <c r="D15" s="28">
         <f t="shared" si="0"/>
-        <v>2798.4495648254992</v>
+        <v>2522.3666306098316</v>
       </c>
       <c r="E15" s="28">
         <f t="shared" si="1"/>
-        <v>40111.110429165485</v>
+        <v>36153.921705407585</v>
       </c>
       <c r="G15" s="6">
         <f>[3]Summary!E15</f>
-        <v>36153.921705407585</v>
+        <v>40676.348266277222</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="2"/>
-        <v>3957.1887237578994</v>
+        <v>-4522.4265608696369</v>
       </c>
       <c r="I15" s="29">
         <f t="shared" si="3"/>
-        <v>0.10945392746054484</v>
+        <v>-0.11118074147818624</v>
       </c>
       <c r="J15" s="6">
         <f>+[25]Summary!$L$36</f>
@@ -3208,13 +3660,15 @@
       </c>
       <c r="K15" s="6">
         <f t="shared" si="4"/>
-        <v>-30610.45616693113</v>
+        <v>-34567.644890689029</v>
       </c>
       <c r="L15" s="29">
         <f t="shared" si="5"/>
-        <v>-0.43283057262790658</v>
-      </c>
-      <c r="M15" s="24"/>
+        <v>-0.48878505602274008</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="O15" t="s">
         <v>31</v>
       </c>
@@ -3228,7 +3682,7 @@
       </c>
       <c r="B16" s="31">
         <f>[3]Summary!B16</f>
-        <v>49779.154849274884</v>
+        <v>290107.76076621248</v>
       </c>
       <c r="C16" s="32">
         <f>+[26]Summary!$H$35</f>
@@ -3236,15 +3690,15 @@
       </c>
       <c r="D16" s="33">
         <f t="shared" si="0"/>
-        <v>3733.436613695616</v>
+        <v>21758.082057465934</v>
       </c>
       <c r="E16" s="33">
         <f t="shared" si="1"/>
-        <v>53512.5914629705</v>
+        <v>311865.84282367839</v>
       </c>
       <c r="G16" s="31">
         <f>[3]Summary!E16</f>
-        <v>53512.5914629705</v>
+        <v>311865.84282367839</v>
       </c>
       <c r="H16" s="31">
         <f t="shared" si="2"/>
@@ -3260,11 +3714,11 @@
       </c>
       <c r="K16" s="31">
         <f t="shared" si="4"/>
-        <v>-723791.08460231952</v>
+        <v>-465437.8332416116</v>
       </c>
       <c r="L16" s="34">
         <f t="shared" si="5"/>
-        <v>-0.93115613226756999</v>
+        <v>-0.59878506634325623</v>
       </c>
       <c r="M16" s="35"/>
       <c r="O16" s="30" t="s">
@@ -3284,29 +3738,29 @@
       </c>
       <c r="B18" s="37">
         <f>+SUM(B2:B17)</f>
-        <v>1090821.8217550332</v>
+        <v>1524086.6303878045</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="37">
         <f>+SUM(D2:D17)</f>
-        <v>76647.669165625877</v>
+        <v>108165.12527417297</v>
       </c>
       <c r="E18" s="37">
         <f>+SUM(E2:E17)</f>
-        <v>1167469.4909206589</v>
+        <v>1632251.7556619777</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="37">
         <f>+SUM(G2:G17)</f>
-        <v>1144534.7847099171</v>
+        <v>1517700.036822591</v>
       </c>
       <c r="H18" s="37">
         <f>+SUM(H2:H17)</f>
-        <v>22934.706210742072</v>
+        <v>114551.71883938694</v>
       </c>
       <c r="I18" s="29">
         <f>+H18/G18</f>
-        <v>2.0038452755767388E-2</v>
+        <v>7.547717998294895E-2</v>
       </c>
       <c r="J18" s="37">
         <f>+SUM(J2:J17)</f>
@@ -3314,39 +3768,18 @@
       </c>
       <c r="K18" s="37">
         <f>+SUM(K2:K17)</f>
-        <v>-519037.96019122849</v>
+        <v>-54255.695449910127</v>
       </c>
       <c r="L18" s="29">
         <f>+K18/J18</f>
-        <v>-0.3077590673252199</v>
+        <v>-3.2170445149317425E-2</v>
       </c>
       <c r="M18" s="24"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A20:M20"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3442,39 +3875,39 @@
       </c>
       <c r="B4" s="21">
         <f>+SUM(B5:B28)</f>
-        <v>33453.88956995491</v>
+        <v>116794.18731461056</v>
       </c>
       <c r="C4" s="21">
         <f>+SUM(C5:C28)</f>
-        <v>0</v>
+        <v>-2.671487169057732E-3</v>
       </c>
       <c r="D4" s="21">
         <f t="shared" ref="D4:N4" si="0">+SUM(D5:D28)</f>
-        <v>0</v>
+        <v>-2.2262393075481103E-3</v>
       </c>
       <c r="E4" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7922857673679862</v>
       </c>
       <c r="F4" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6422.6958842002614</v>
       </c>
       <c r="G4" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105509.02285811254</v>
       </c>
       <c r="H4" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4773.3096471743111</v>
       </c>
       <c r="I4" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.7615252036797138</v>
       </c>
       <c r="J4" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77.610011878868875</v>
       </c>
       <c r="K4" s="21">
         <f t="shared" si="0"/>
@@ -3490,13 +3923,13 @@
       </c>
       <c r="N4" s="23">
         <f t="shared" si="0"/>
-        <v>33453.88956995491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f>+[27]Summary!A8</f>
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B5" s="10">
         <f>+[27]Summary!H8</f>
@@ -3521,7 +3954,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f>+[27]Summary!A9</f>
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B6" s="10">
         <f>+[27]Summary!H9</f>
@@ -3579,7 +4012,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>+[27]Summary!A10</f>
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B7" s="10">
         <f>+[27]Summary!H10</f>
@@ -3637,7 +4070,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f>+[27]Summary!A11</f>
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B8" s="10">
         <f>+[27]Summary!H11</f>
@@ -3695,27 +4128,27 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f>+[27]Summary!A12</f>
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B9" s="10">
         <f>+[27]Summary!H12</f>
-        <v>0</v>
+        <v>5.7246335095551331</v>
       </c>
       <c r="C9" s="11">
         <f>+$B9*[28]Allocation!U8</f>
-        <v>0</v>
+        <v>-2.671487169057732E-3</v>
       </c>
       <c r="D9" s="11">
         <f>+$B9*[28]Allocation!V8</f>
-        <v>0</v>
+        <v>-2.2262393075481103E-3</v>
       </c>
       <c r="E9" s="11">
         <f>+$B9*[28]Allocation!W8</f>
-        <v>0</v>
+        <v>0.59393120760276108</v>
       </c>
       <c r="F9" s="11">
         <f>+$B9*[28]Allocation!AH8</f>
-        <v>0</v>
+        <v>4.9644650911524106</v>
       </c>
       <c r="G9" s="11">
         <f>+$B9*[28]Allocation!AI8</f>
@@ -3727,11 +4160,11 @@
       </c>
       <c r="I9" s="11">
         <f>+$B9*[28]Allocation!AC8</f>
-        <v>0</v>
+        <v>3.4847664836620194E-4</v>
       </c>
       <c r="J9" s="11">
         <f>+$B9*[28]Allocation!AD8</f>
-        <v>0</v>
+        <v>0.17078646062820094</v>
       </c>
       <c r="K9" s="11">
         <f>+$B9*[28]Allocation!AE8</f>
@@ -3753,11 +4186,11 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f>+[27]Summary!A13</f>
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B10" s="10">
         <f>+[27]Summary!H13</f>
-        <v>1.7032735299435444</v>
+        <v>9.8752139325661119</v>
       </c>
       <c r="C10" s="11">
         <f>+$B10*[28]Allocation!U9</f>
@@ -3769,11 +4202,11 @@
       </c>
       <c r="E10" s="11">
         <f>+$B10*[28]Allocation!W9</f>
-        <v>0</v>
+        <v>0.67885965933369197</v>
       </c>
       <c r="F10" s="11">
         <f>+$B10*[28]Allocation!AH9</f>
-        <v>0</v>
+        <v>8.9281688922801159</v>
       </c>
       <c r="G10" s="11">
         <f>+$B10*[28]Allocation!AI9</f>
@@ -3789,7 +4222,7 @@
       </c>
       <c r="J10" s="11">
         <f>+$B10*[28]Allocation!AD9</f>
-        <v>0</v>
+        <v>0.26818538095230449</v>
       </c>
       <c r="K10" s="11">
         <f>+$B10*[28]Allocation!AE9</f>
@@ -3805,17 +4238,17 @@
       </c>
       <c r="N10" s="12">
         <f t="shared" si="2"/>
-        <v>1.7032735299435444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <f>+[27]Summary!A14</f>
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B11" s="10">
         <f>+[27]Summary!H14</f>
-        <v>98.110090685077012</v>
+        <v>87.641531743080122</v>
       </c>
       <c r="C11" s="11">
         <f>+$B11*[28]Allocation!U10</f>
@@ -3827,15 +4260,15 @@
       </c>
       <c r="E11" s="11">
         <f>+$B11*[28]Allocation!W10</f>
-        <v>0</v>
+        <v>2.9563183391119034</v>
       </c>
       <c r="F11" s="11">
         <f>+$B11*[28]Allocation!AH10</f>
-        <v>0</v>
+        <v>82.642447301527199</v>
       </c>
       <c r="G11" s="11">
         <f>+$B11*[28]Allocation!AI10</f>
-        <v>0</v>
+        <v>1.1986313419522318E-2</v>
       </c>
       <c r="H11" s="11">
         <f>+$B11*[28]Allocation!AB10</f>
@@ -3843,11 +4276,11 @@
       </c>
       <c r="I11" s="11">
         <f>+$B11*[28]Allocation!AC10</f>
-        <v>0</v>
+        <v>5.3874182174774646E-3</v>
       </c>
       <c r="J11" s="11">
         <f>+$B11*[28]Allocation!AD10</f>
-        <v>0</v>
+        <v>2.0253923708040213</v>
       </c>
       <c r="K11" s="11">
         <f>+$B11*[28]Allocation!AE10</f>
@@ -3863,17 +4296,17 @@
       </c>
       <c r="N11" s="12">
         <f t="shared" si="2"/>
-        <v>98.110090685077012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <f>+[27]Summary!A15</f>
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B12" s="10">
         <f>+[27]Summary!H15</f>
-        <v>781.10676364769461</v>
+        <v>186.94398931981414</v>
       </c>
       <c r="C12" s="11">
         <f>+$B12*[28]Allocation!U11</f>
@@ -3885,15 +4318,15 @@
       </c>
       <c r="E12" s="11">
         <f>+$B12*[28]Allocation!W11</f>
-        <v>0</v>
+        <v>-0.25442197433301345</v>
       </c>
       <c r="F12" s="11">
         <f>+$B12*[28]Allocation!AH11</f>
-        <v>0</v>
+        <v>179.94092833603571</v>
       </c>
       <c r="G12" s="11">
         <f>+$B12*[28]Allocation!AI11</f>
-        <v>0</v>
+        <v>3.5950169074330081</v>
       </c>
       <c r="H12" s="11">
         <f>+$B12*[28]Allocation!AB11</f>
@@ -3901,11 +4334,11 @@
       </c>
       <c r="I12" s="11">
         <f>+$B12*[28]Allocation!AC11</f>
-        <v>0</v>
+        <v>1.1633438021091859E-2</v>
       </c>
       <c r="J12" s="11">
         <f>+$B12*[28]Allocation!AD11</f>
-        <v>0</v>
+        <v>3.6508326126573154</v>
       </c>
       <c r="K12" s="11">
         <f>+$B12*[28]Allocation!AE11</f>
@@ -3921,17 +4354,17 @@
       </c>
       <c r="N12" s="12">
         <f t="shared" si="2"/>
-        <v>781.10676364769461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <f>+[27]Summary!A16</f>
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B13" s="10">
         <f>+[27]Summary!H16</f>
-        <v>1010.3536612073076</v>
+        <v>329.47577156301122</v>
       </c>
       <c r="C13" s="11">
         <f>+$B13*[28]Allocation!U12</f>
@@ -3943,15 +4376,15 @@
       </c>
       <c r="E13" s="11">
         <f>+$B13*[28]Allocation!W12</f>
-        <v>0</v>
+        <v>-0.25550961985271237</v>
       </c>
       <c r="F13" s="11">
         <f>+$B13*[28]Allocation!AH12</f>
-        <v>0</v>
+        <v>261.84378131930333</v>
       </c>
       <c r="G13" s="11">
         <f>+$B13*[28]Allocation!AI12</f>
-        <v>0</v>
+        <v>62.629666993056588</v>
       </c>
       <c r="H13" s="11">
         <f>+$B13*[28]Allocation!AB12</f>
@@ -3959,11 +4392,11 @@
       </c>
       <c r="I13" s="11">
         <f>+$B13*[28]Allocation!AC12</f>
-        <v>0</v>
+        <v>1.9659248783543342E-2</v>
       </c>
       <c r="J13" s="11">
         <f>+$B13*[28]Allocation!AD12</f>
-        <v>0</v>
+        <v>5.2381736217204482</v>
       </c>
       <c r="K13" s="11">
         <f>+$B13*[28]Allocation!AE12</f>
@@ -3979,17 +4412,17 @@
       </c>
       <c r="N13" s="12">
         <f t="shared" si="2"/>
-        <v>1010.3536612073076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <f>+[27]Summary!A17</f>
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B14" s="10">
         <f>+[27]Summary!H17</f>
-        <v>1110.600079182419</v>
+        <v>476.93558834749274</v>
       </c>
       <c r="C14" s="11">
         <f>+$B14*[28]Allocation!U13</f>
@@ -4001,15 +4434,15 @@
       </c>
       <c r="E14" s="11">
         <f>+$B14*[28]Allocation!W13</f>
-        <v>0</v>
+        <v>-3.415287355007994E-2</v>
       </c>
       <c r="F14" s="11">
         <f>+$B14*[28]Allocation!AH13</f>
-        <v>0</v>
+        <v>295.00901633091149</v>
       </c>
       <c r="G14" s="11">
         <f>+$B14*[28]Allocation!AI13</f>
-        <v>0</v>
+        <v>176.07456817513835</v>
       </c>
       <c r="H14" s="11">
         <f>+$B14*[28]Allocation!AB13</f>
@@ -4017,11 +4450,11 @@
       </c>
       <c r="I14" s="11">
         <f>+$B14*[28]Allocation!AC13</f>
-        <v>0</v>
+        <v>2.6730008014983736E-2</v>
       </c>
       <c r="J14" s="11">
         <f>+$B14*[28]Allocation!AD13</f>
-        <v>0</v>
+        <v>5.8594267069779216</v>
       </c>
       <c r="K14" s="11">
         <f>+$B14*[28]Allocation!AE13</f>
@@ -4037,17 +4470,17 @@
       </c>
       <c r="N14" s="12">
         <f t="shared" si="2"/>
-        <v>1110.600079182419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <f>+[27]Summary!A18</f>
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B15" s="10">
         <f>+[27]Summary!H18</f>
-        <v>1447.2988825003267</v>
+        <v>880.01448790368158</v>
       </c>
       <c r="C15" s="11">
         <f>+$B15*[28]Allocation!U14</f>
@@ -4059,15 +4492,15 @@
       </c>
       <c r="E15" s="11">
         <f>+$B15*[28]Allocation!W14</f>
-        <v>0</v>
+        <v>-0.1492257762790847</v>
       </c>
       <c r="F15" s="11">
         <f>+$B15*[28]Allocation!AH14</f>
-        <v>0</v>
+        <v>414.56047605593045</v>
       </c>
       <c r="G15" s="11">
         <f>+$B15*[28]Allocation!AI14</f>
-        <v>0</v>
+        <v>456.61519432768495</v>
       </c>
       <c r="H15" s="11">
         <f>+$B15*[28]Allocation!AB14</f>
@@ -4075,11 +4508,11 @@
       </c>
       <c r="I15" s="11">
         <f>+$B15*[28]Allocation!AC14</f>
-        <v>0</v>
+        <v>4.7799802580836652E-2</v>
       </c>
       <c r="J15" s="11">
         <f>+$B15*[28]Allocation!AD14</f>
-        <v>0</v>
+        <v>8.9402434937645321</v>
       </c>
       <c r="K15" s="11">
         <f>+$B15*[28]Allocation!AE14</f>
@@ -4095,17 +4528,17 @@
       </c>
       <c r="N15" s="12">
         <f t="shared" si="2"/>
-        <v>1447.2988825003267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <f>+[27]Summary!A19</f>
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B16" s="10">
         <f>+[27]Summary!H19</f>
-        <v>1289.919267286954</v>
+        <v>1828.9400653282064</v>
       </c>
       <c r="C16" s="11">
         <f>+$B16*[28]Allocation!U15</f>
@@ -4121,11 +4554,11 @@
       </c>
       <c r="F16" s="11">
         <f>+$B16*[28]Allocation!AH15</f>
-        <v>0</v>
+        <v>574.78537881759928</v>
       </c>
       <c r="G16" s="11">
         <f>+$B16*[28]Allocation!AI15</f>
-        <v>0</v>
+        <v>1239.7469959802313</v>
       </c>
       <c r="H16" s="11">
         <f>+$B16*[28]Allocation!AB15</f>
@@ -4133,11 +4566,11 @@
       </c>
       <c r="I16" s="11">
         <f>+$B16*[28]Allocation!AC15</f>
-        <v>0</v>
+        <v>9.488392423701264E-2</v>
       </c>
       <c r="J16" s="11">
         <f>+$B16*[28]Allocation!AD15</f>
-        <v>0</v>
+        <v>14.312806606138649</v>
       </c>
       <c r="K16" s="11">
         <f>+$B16*[28]Allocation!AE15</f>
@@ -4153,17 +4586,17 @@
       </c>
       <c r="N16" s="12">
         <f t="shared" si="2"/>
-        <v>1289.919267286954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <f>+[27]Summary!A20</f>
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B17" s="10">
         <f>+[27]Summary!H20</f>
-        <v>1694.9328809941944</v>
+        <v>3124.8082136861049</v>
       </c>
       <c r="C17" s="11">
         <f>+$B17*[28]Allocation!U16</f>
@@ -4175,15 +4608,15 @@
       </c>
       <c r="E17" s="11">
         <f>+$B17*[28]Allocation!W16</f>
-        <v>0</v>
+        <v>-1.3701624430948345</v>
       </c>
       <c r="F17" s="11">
         <f>+$B17*[28]Allocation!AH16</f>
-        <v>0</v>
+        <v>770.93122610204239</v>
       </c>
       <c r="G17" s="11">
         <f>+$B17*[28]Allocation!AI16</f>
-        <v>0</v>
+        <v>2337.6075924050751</v>
       </c>
       <c r="H17" s="11">
         <f>+$B17*[28]Allocation!AB16</f>
@@ -4191,11 +4624,11 @@
       </c>
       <c r="I17" s="11">
         <f>+$B17*[28]Allocation!AC16</f>
-        <v>0</v>
+        <v>0.16894364065430784</v>
       </c>
       <c r="J17" s="11">
         <f>+$B17*[28]Allocation!AD16</f>
-        <v>0</v>
+        <v>17.470613981428073</v>
       </c>
       <c r="K17" s="11">
         <f>+$B17*[28]Allocation!AE16</f>
@@ -4211,17 +4644,17 @@
       </c>
       <c r="N17" s="12">
         <f t="shared" si="2"/>
-        <v>1694.9328809941944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <f>+[27]Summary!A21</f>
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B18" s="10">
         <f>+[27]Summary!H21</f>
-        <v>2847.643824507948</v>
+        <v>3244.6645041573502</v>
       </c>
       <c r="C18" s="11">
         <f>+$B18*[28]Allocation!U17</f>
@@ -4237,11 +4670,11 @@
       </c>
       <c r="F18" s="11">
         <f>+$B18*[28]Allocation!AH17</f>
-        <v>0</v>
+        <v>637.97094070612138</v>
       </c>
       <c r="G18" s="11">
         <f>+$B18*[28]Allocation!AI17</f>
-        <v>0</v>
+        <v>2596.1363048588896</v>
       </c>
       <c r="H18" s="11">
         <f>+$B18*[28]Allocation!AB17</f>
@@ -4249,11 +4682,11 @@
       </c>
       <c r="I18" s="11">
         <f>+$B18*[28]Allocation!AC17</f>
-        <v>0</v>
+        <v>0.17115104007171414</v>
       </c>
       <c r="J18" s="11">
         <f>+$B18*[28]Allocation!AD17</f>
-        <v>0</v>
+        <v>10.386107552267864</v>
       </c>
       <c r="K18" s="11">
         <f>+$B18*[28]Allocation!AE17</f>
@@ -4269,17 +4702,17 @@
       </c>
       <c r="N18" s="12">
         <f t="shared" si="2"/>
-        <v>2847.643824507948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <f>+[27]Summary!A22</f>
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B19" s="10">
         <f>+[27]Summary!H22</f>
-        <v>2440.8600483703922</v>
+        <v>4000.2785609582206</v>
       </c>
       <c r="C19" s="11">
         <f>+$B19*[28]Allocation!U18</f>
@@ -4291,15 +4724,15 @@
       </c>
       <c r="E19" s="11">
         <f>+$B19*[28]Allocation!W18</f>
-        <v>0</v>
+        <v>-0.37335075157064551</v>
       </c>
       <c r="F19" s="11">
         <f>+$B19*[28]Allocation!AH18</f>
-        <v>0</v>
+        <v>595.1656803186886</v>
       </c>
       <c r="G19" s="11">
         <f>+$B19*[28]Allocation!AI18</f>
-        <v>0</v>
+        <v>3398.97194457041</v>
       </c>
       <c r="H19" s="11">
         <f>+$B19*[28]Allocation!AB18</f>
@@ -4307,11 +4740,11 @@
       </c>
       <c r="I19" s="11">
         <f>+$B19*[28]Allocation!AC18</f>
-        <v>0</v>
+        <v>0.21643844213431726</v>
       </c>
       <c r="J19" s="11">
         <f>+$B19*[28]Allocation!AD18</f>
-        <v>0</v>
+        <v>6.2978483785585242</v>
       </c>
       <c r="K19" s="11">
         <f>+$B19*[28]Allocation!AE18</f>
@@ -4327,17 +4760,17 @@
       </c>
       <c r="N19" s="12">
         <f t="shared" si="2"/>
-        <v>2440.8600483703922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <f>+[27]Summary!A23</f>
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B20" s="10">
         <f>+[27]Summary!H23</f>
-        <v>4107.8313481451769</v>
+        <v>7044.7817021331866</v>
       </c>
       <c r="C20" s="11">
         <f>+$B20*[28]Allocation!U19</f>
@@ -4353,11 +4786,11 @@
       </c>
       <c r="F20" s="11">
         <f>+$B20*[28]Allocation!AH19</f>
-        <v>0</v>
+        <v>888.34573238945814</v>
       </c>
       <c r="G20" s="11">
         <f>+$B20*[28]Allocation!AI19</f>
-        <v>0</v>
+        <v>6153.0136611702728</v>
       </c>
       <c r="H20" s="11">
         <f>+$B20*[28]Allocation!AB19</f>
@@ -4365,11 +4798,11 @@
       </c>
       <c r="I20" s="11">
         <f>+$B20*[28]Allocation!AC19</f>
-        <v>0</v>
+        <v>0.43271386048446819</v>
       </c>
       <c r="J20" s="11">
         <f>+$B20*[28]Allocation!AD19</f>
-        <v>0</v>
+        <v>2.9895947129710065</v>
       </c>
       <c r="K20" s="11">
         <f>+$B20*[28]Allocation!AE19</f>
@@ -4385,17 +4818,17 @@
       </c>
       <c r="N20" s="12">
         <f t="shared" si="2"/>
-        <v>4107.8313481451769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <f>+[27]Summary!A24</f>
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B21" s="10">
         <f>+[27]Summary!H24</f>
-        <v>3571.855623320429</v>
+        <v>6569.9906270338834</v>
       </c>
       <c r="C21" s="11">
         <f>+$B21*[28]Allocation!U20</f>
@@ -4411,11 +4844,11 @@
       </c>
       <c r="F21" s="11">
         <f>+$B21*[28]Allocation!AH20</f>
-        <v>0</v>
+        <v>675.02278582641236</v>
       </c>
       <c r="G21" s="11">
         <f>+$B21*[28]Allocation!AI20</f>
-        <v>0</v>
+        <v>5894.5286776212524</v>
       </c>
       <c r="H21" s="11">
         <f>+$B21*[28]Allocation!AB20</f>
@@ -4423,7 +4856,7 @@
       </c>
       <c r="I21" s="11">
         <f>+$B21*[28]Allocation!AC20</f>
-        <v>0</v>
+        <v>0.43916358621800516</v>
       </c>
       <c r="J21" s="11">
         <f>+$B21*[28]Allocation!AD20</f>
@@ -4443,17 +4876,17 @@
       </c>
       <c r="N21" s="12">
         <f t="shared" si="2"/>
-        <v>3571.855623320429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <f>+[27]Summary!A25</f>
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B22" s="10">
         <f>+[27]Summary!H25</f>
-        <v>4246.6725183626259</v>
+        <v>10089.44521042108</v>
       </c>
       <c r="C22" s="11">
         <f>+$B22*[28]Allocation!U21</f>
@@ -4469,11 +4902,11 @@
       </c>
       <c r="F22" s="11">
         <f>+$B22*[28]Allocation!AH21</f>
-        <v>0</v>
+        <v>721.080786082994</v>
       </c>
       <c r="G22" s="11">
         <f>+$B22*[28]Allocation!AI21</f>
-        <v>0</v>
+        <v>9367.6262715109333</v>
       </c>
       <c r="H22" s="11">
         <f>+$B22*[28]Allocation!AB21</f>
@@ -4481,7 +4914,7 @@
       </c>
       <c r="I22" s="11">
         <f>+$B22*[28]Allocation!AC21</f>
-        <v>0</v>
+        <v>0.73815282715300456</v>
       </c>
       <c r="J22" s="11">
         <f>+$B22*[28]Allocation!AD21</f>
@@ -4501,17 +4934,17 @@
       </c>
       <c r="N22" s="12">
         <f t="shared" si="2"/>
-        <v>4246.6725183626259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <f>+[27]Summary!A26</f>
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B23" s="10">
         <f>+[27]Summary!H26</f>
-        <v>5097.2929434053076</v>
+        <v>9346.6062436414068</v>
       </c>
       <c r="C23" s="11">
         <f>+$B23*[28]Allocation!U22</f>
@@ -4527,11 +4960,11 @@
       </c>
       <c r="F23" s="11">
         <f>+$B23*[28]Allocation!AH22</f>
-        <v>0</v>
+        <v>333.8424558680548</v>
       </c>
       <c r="G23" s="11">
         <f>+$B23*[28]Allocation!AI22</f>
-        <v>0</v>
+        <v>9012.0138720170035</v>
       </c>
       <c r="H23" s="11">
         <f>+$B23*[28]Allocation!AB22</f>
@@ -4539,7 +4972,7 @@
       </c>
       <c r="I23" s="11">
         <f>+$B23*[28]Allocation!AC22</f>
-        <v>0</v>
+        <v>0.7499157563497505</v>
       </c>
       <c r="J23" s="11">
         <f>+$B23*[28]Allocation!AD22</f>
@@ -4559,17 +4992,17 @@
       </c>
       <c r="N23" s="12">
         <f t="shared" si="2"/>
-        <v>5097.2929434053076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <f>+[27]Summary!A27</f>
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B24" s="10">
         <f>+[27]Summary!H27</f>
-        <v>9386.2545881313708</v>
+        <v>16293.447032806085</v>
       </c>
       <c r="C24" s="11">
         <f>+$B24*[28]Allocation!U23</f>
@@ -4585,19 +5018,19 @@
       </c>
       <c r="F24" s="11">
         <f>+$B24*[28]Allocation!AH23</f>
-        <v>0</v>
+        <v>-14.087360858568873</v>
       </c>
       <c r="G24" s="11">
         <f>+$B24*[28]Allocation!AI23</f>
-        <v>0</v>
+        <v>16217.095383949638</v>
       </c>
       <c r="H24" s="11">
         <f>+$B24*[28]Allocation!AB23</f>
-        <v>0</v>
+        <v>88.99437299620773</v>
       </c>
       <c r="I24" s="11">
         <f>+$B24*[28]Allocation!AC23</f>
-        <v>0</v>
+        <v>1.4446367188073095</v>
       </c>
       <c r="J24" s="11">
         <f>+$B24*[28]Allocation!AD23</f>
@@ -4617,17 +5050,17 @@
       </c>
       <c r="N24" s="12">
         <f t="shared" si="2"/>
-        <v>9386.2545881313708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <f>+[27]Summary!A28</f>
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B25" s="10">
         <f>+[27]Summary!H28</f>
-        <v>16167.193776677741</v>
+        <v>25448.703938125851</v>
       </c>
       <c r="C25" s="11">
         <f>+$B25*[28]Allocation!U24</f>
@@ -4643,19 +5076,19 @@
       </c>
       <c r="F25" s="11">
         <f>+$B25*[28]Allocation!AH24</f>
-        <v>0</v>
+        <v>-4.2279527696349328</v>
       </c>
       <c r="G25" s="11">
         <f>+$B25*[28]Allocation!AI24</f>
-        <v>0</v>
+        <v>23701.932894653048</v>
       </c>
       <c r="H25" s="11">
         <f>+$B25*[28]Allocation!AB24</f>
-        <v>0</v>
+        <v>1748.5526367961659</v>
       </c>
       <c r="I25" s="11">
         <f>+$B25*[28]Allocation!AC24</f>
-        <v>0</v>
+        <v>2.4463594462742559</v>
       </c>
       <c r="J25" s="11">
         <f>+$B25*[28]Allocation!AD24</f>
@@ -4675,17 +5108,17 @@
       </c>
       <c r="N25" s="12">
         <f t="shared" si="2"/>
-        <v>16167.193776677741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <f>+[27]Summary!A29</f>
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B26" s="10">
         <f>+[27]Summary!H29</f>
-        <v>-20842.32</v>
+        <v>27864.690000000002</v>
       </c>
       <c r="C26" s="11">
         <f>+$B26*[28]Allocation!U25</f>
@@ -4701,19 +5134,19 @@
       </c>
       <c r="F26" s="11">
         <f>+$B26*[28]Allocation!AH25</f>
-        <v>0</v>
+        <v>-17.607967530234436</v>
       </c>
       <c r="G26" s="11">
         <f>+$B26*[28]Allocation!AI25</f>
-        <v>0</v>
+        <v>23206.4910148419</v>
       </c>
       <c r="H26" s="11">
         <f>+$B26*[28]Allocation!AB25</f>
-        <v>0</v>
+        <v>4672.8522492517113</v>
       </c>
       <c r="I26" s="11">
         <f>+$B26*[28]Allocation!AC25</f>
-        <v>0</v>
+        <v>2.9547034366235692</v>
       </c>
       <c r="J26" s="11">
         <f>+$B26*[28]Allocation!AD25</f>
@@ -4733,17 +5166,17 @@
       </c>
       <c r="N26" s="12">
         <f t="shared" si="2"/>
-        <v>-20842.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <f>+[27]Summary!A30</f>
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B27" s="10">
         <f>+[27]Summary!H30</f>
-        <v>-1003.4200000000001</v>
+        <v>9786.2199999999866</v>
       </c>
       <c r="C27" s="11">
         <f>+$B27*[28]Allocation!U26</f>
@@ -4763,15 +5196,15 @@
       </c>
       <c r="G27" s="11">
         <f>+$B27*[28]Allocation!AI26</f>
-        <v>0</v>
+        <v>6474.9336262137549</v>
       </c>
       <c r="H27" s="11">
         <f>+$B27*[28]Allocation!AB26</f>
-        <v>0</v>
+        <v>3310.1495108395306</v>
       </c>
       <c r="I27" s="11">
         <f>+$B27*[28]Allocation!AC26</f>
-        <v>0</v>
+        <v>1.1368629466996354</v>
       </c>
       <c r="J27" s="11">
         <f>+$B27*[28]Allocation!AD26</f>
@@ -4791,17 +5224,17 @@
       </c>
       <c r="N27" s="12">
         <f t="shared" si="2"/>
-        <v>-1003.4200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <f>+[27]Summary!A31</f>
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B28" s="10">
         <f>+[27]Summary!H31</f>
-        <v>0</v>
+        <v>-9825</v>
       </c>
       <c r="C28" s="11">
         <f>+$B28*[28]Allocation!U27</f>
@@ -4817,19 +5250,19 @@
       </c>
       <c r="F28" s="11">
         <f>+$B28*[28]Allocation!AH27</f>
-        <v>0</v>
+        <v>13.584895920188819</v>
       </c>
       <c r="G28" s="11">
         <f>+$B28*[28]Allocation!AI27</f>
-        <v>0</v>
+        <v>-4790.0018143965917</v>
       </c>
       <c r="H28" s="11">
         <f>+$B28*[28]Allocation!AB27</f>
-        <v>0</v>
+        <v>-5047.239122709304</v>
       </c>
       <c r="I28" s="11">
         <f>+$B28*[28]Allocation!AC27</f>
-        <v>0</v>
+        <v>-1.343958814293936</v>
       </c>
       <c r="J28" s="11">
         <f>+$B28*[28]Allocation!AD27</f>
